--- a/public/templates/data.xlsx
+++ b/public/templates/data.xlsx
@@ -13,10 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$1</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
   <si>
     <t>Ref</t>
   </si>
@@ -35,89 +33,270 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Tyre In Size</t>
+  </si>
+  <si>
+    <t>Tyre In Brand</t>
+  </si>
+  <si>
+    <t>Tyre In Pattern</t>
+  </si>
+  <si>
+    <t>Odometer</t>
+  </si>
+  <si>
+    <t>Tyre In Price</t>
+  </si>
+  <si>
+    <t>Tyre In Serial No</t>
+  </si>
+  <si>
+    <t>Tyre Out Size</t>
+  </si>
+  <si>
+    <t>Tyre Out Brand</t>
+  </si>
+  <si>
+    <t>Tyre Out Pattern</t>
+  </si>
+  <si>
+    <t>Tyre Out Serial No</t>
+  </si>
+  <si>
+    <t>Tyre Out Job Card No</t>
+  </si>
+  <si>
+    <t>BNB1234</t>
+  </si>
+  <si>
+    <t>295/80R22.5</t>
+  </si>
+  <si>
+    <t>Pirelli</t>
+  </si>
+  <si>
+    <t>FR01II</t>
+  </si>
+  <si>
+    <t>DVN12345U</t>
+  </si>
+  <si>
+    <t>Tyre In Retread Brand</t>
+  </si>
+  <si>
+    <t>Tyre In Attribute</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>Worn Out</t>
+  </si>
+  <si>
+    <t>Tyre Out Retread Brand</t>
+  </si>
+  <si>
+    <t>Tyre Out Retread Pattern</t>
+  </si>
+  <si>
+    <t>Michelin</t>
+  </si>
+  <si>
+    <t>XMZ</t>
+  </si>
+  <si>
+    <t>AVN12434K</t>
+  </si>
+  <si>
+    <t>STK</t>
+  </si>
+  <si>
+    <t>Bridgestone</t>
+  </si>
+  <si>
+    <t>R156</t>
+  </si>
+  <si>
+    <t>ST87</t>
+  </si>
+  <si>
+    <t>APK4215</t>
+  </si>
+  <si>
+    <t>P000123</t>
+  </si>
+  <si>
+    <t>XMD</t>
+  </si>
+  <si>
+    <t>AVN43244U</t>
+  </si>
+  <si>
+    <t>BJE2323</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>Techking</t>
+  </si>
+  <si>
+    <t>TKSHIII</t>
+  </si>
+  <si>
+    <t>A12313412</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>Everthon</t>
+  </si>
+  <si>
+    <t>EVR69</t>
+  </si>
+  <si>
+    <t>EVR7788U</t>
+  </si>
+  <si>
+    <t>Tyre Out RTD</t>
+  </si>
+  <si>
+    <t>J0001</t>
+  </si>
+  <si>
+    <t>DVK43224K</t>
+  </si>
+  <si>
+    <t>USED</t>
+  </si>
+  <si>
+    <t>P000321</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
     <t>Jobsheet No</t>
   </si>
   <si>
+    <t>J0003</t>
+  </si>
+  <si>
+    <t>J0004</t>
+  </si>
+  <si>
+    <t>J0005</t>
+  </si>
+  <si>
+    <t>Breakdown</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>TBA1200</t>
+  </si>
+  <si>
+    <t>Tyre Out Reason</t>
+  </si>
+  <si>
+    <t>COC</t>
+  </si>
+  <si>
     <t>Invoice No</t>
   </si>
   <si>
     <t>Invoice Amount</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Truck</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Trailer</t>
-  </si>
-  <si>
-    <t>Odometer</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Tyre In Attribute</t>
-  </si>
-  <si>
-    <t>Tyre In Price</t>
-  </si>
-  <si>
-    <t>Tyre In Size</t>
-  </si>
-  <si>
-    <t>Tyre In Brand</t>
-  </si>
-  <si>
-    <t>Tyre In Pattern</t>
-  </si>
-  <si>
-    <t>Tyre In Retread Brand</t>
-  </si>
-  <si>
-    <t>Tyre In Retread Pattern</t>
-  </si>
-  <si>
-    <t>Tyre In Serial No</t>
-  </si>
-  <si>
-    <t>Tyre Out Reason</t>
-  </si>
-  <si>
-    <t>Tyre Out Size</t>
-  </si>
-  <si>
-    <t>Tyre Out Brand</t>
-  </si>
-  <si>
-    <t>Tyre Out Pattern</t>
-  </si>
-  <si>
-    <t>Tyre Out Retread Brand</t>
-  </si>
-  <si>
-    <t>Tyre Out Retread Pattern</t>
-  </si>
-  <si>
-    <t>Tyre Out Serial No</t>
-  </si>
-  <si>
-    <t>Tyre Out Job Card No</t>
-  </si>
-  <si>
-    <t>Tyre Out RTD</t>
+    <t>IN0001</t>
+  </si>
+  <si>
+    <t>IN0005</t>
+  </si>
+  <si>
+    <t>IN0006</t>
+  </si>
+  <si>
+    <t>IN0004</t>
+  </si>
+  <si>
+    <t>Yard</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>A LOGISTIC</t>
+  </si>
+  <si>
+    <t>B LOGISTIC</t>
+  </si>
+  <si>
+    <t>JNA1222</t>
+  </si>
+  <si>
+    <t>JNC2323</t>
+  </si>
+  <si>
+    <t>NT SUB CON</t>
+  </si>
+  <si>
+    <t>STK SUB CON</t>
+  </si>
+  <si>
+    <t>J0006</t>
+  </si>
+  <si>
+    <t>IN0008</t>
+  </si>
+  <si>
+    <t>JMB5677</t>
+  </si>
+  <si>
+    <t>M798</t>
+  </si>
+  <si>
+    <t>RET A</t>
+  </si>
+  <si>
+    <t>RET B</t>
+  </si>
+  <si>
+    <t>AKH1215K</t>
+  </si>
+  <si>
+    <t>C87</t>
+  </si>
+  <si>
+    <t>ST27</t>
+  </si>
+  <si>
+    <t>K0123-1</t>
+  </si>
+  <si>
+    <t>AYT1216M</t>
   </si>
   <si>
     <t>Yard/
 Breakdown</t>
   </si>
   <si>
-    <t>Tyre In
+    <t>Tyre In 
+Retread Pattern</t>
+  </si>
+  <si>
+    <t>Tyre In 
 Job Card No</t>
   </si>
 </sst>
@@ -128,7 +307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,16 +315,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,12 +335,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -183,30 +348,315 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="66">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -232,8 +682,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="65"/>
+      <tableStyleElement type="headerRow" dxfId="64"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -245,6 +695,84 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AD2" insertRow="1" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:AD2"/>
+  <tableColumns count="30">
+    <tableColumn id="1" name="Ref" dataDxfId="61"/>
+    <tableColumn id="2" name="Date" dataDxfId="60"/>
+    <tableColumn id="4" name="Jobsheet No" dataDxfId="59"/>
+    <tableColumn id="21" name="Invoice No" dataDxfId="58"/>
+    <tableColumn id="17" name="Invoice Amount" dataDxfId="57"/>
+    <tableColumn id="11" name="Yard/_x000a_Breakdown" dataDxfId="56"/>
+    <tableColumn id="3" name="Customer" dataDxfId="55"/>
+    <tableColumn id="5" name="Truck" dataDxfId="54"/>
+    <tableColumn id="20" name="PM" dataDxfId="53"/>
+    <tableColumn id="28" name="Trailer" dataDxfId="52"/>
+    <tableColumn id="6" name="Odometer" dataDxfId="51"/>
+    <tableColumn id="7" name="Position" dataDxfId="50"/>
+    <tableColumn id="24" name="Tyre In Attribute" dataDxfId="49"/>
+    <tableColumn id="31" name="Tyre In Price" dataDxfId="48"/>
+    <tableColumn id="8" name="Tyre In Size" dataDxfId="47"/>
+    <tableColumn id="9" name="Tyre In Brand" dataDxfId="46"/>
+    <tableColumn id="10" name="Tyre In Pattern" dataDxfId="45"/>
+    <tableColumn id="23" name="Tyre In Retread Brand" dataDxfId="44"/>
+    <tableColumn id="22" name="Tyre In _x000a_Retread Pattern" dataDxfId="43"/>
+    <tableColumn id="12" name="Tyre In Serial No" dataDxfId="42"/>
+    <tableColumn id="13" name="Tyre In _x000a_Job Card No" dataDxfId="41"/>
+    <tableColumn id="25" name="Tyre Out Reason" dataDxfId="40"/>
+    <tableColumn id="14" name="Tyre Out Size" dataDxfId="39"/>
+    <tableColumn id="15" name="Tyre Out Brand" dataDxfId="38"/>
+    <tableColumn id="16" name="Tyre Out Pattern" dataDxfId="37"/>
+    <tableColumn id="27" name="Tyre Out Retread Brand" dataDxfId="36"/>
+    <tableColumn id="26" name="Tyre Out Retread Pattern" dataDxfId="35"/>
+    <tableColumn id="18" name="Tyre Out Serial No" dataDxfId="34"/>
+    <tableColumn id="19" name="Tyre Out Job Card No" dataDxfId="33"/>
+    <tableColumn id="29" name="Tyre Out RTD" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:AD7" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:AD7"/>
+  <tableColumns count="30">
+    <tableColumn id="1" name="Ref" dataDxfId="29"/>
+    <tableColumn id="2" name="Date" dataDxfId="28"/>
+    <tableColumn id="4" name="Jobsheet No" dataDxfId="27"/>
+    <tableColumn id="21" name="Invoice No" dataDxfId="26"/>
+    <tableColumn id="17" name="Invoice Amount" dataDxfId="25"/>
+    <tableColumn id="11" name="Yard/_x000a_Breakdown" dataDxfId="24"/>
+    <tableColumn id="3" name="Customer" dataDxfId="23"/>
+    <tableColumn id="5" name="Truck" dataDxfId="22"/>
+    <tableColumn id="20" name="PM" dataDxfId="21"/>
+    <tableColumn id="28" name="Trailer" dataDxfId="20"/>
+    <tableColumn id="6" name="Odometer" dataDxfId="19"/>
+    <tableColumn id="7" name="Position" dataDxfId="18"/>
+    <tableColumn id="24" name="Tyre In Attribute" dataDxfId="17"/>
+    <tableColumn id="31" name="Tyre In Price" dataDxfId="16"/>
+    <tableColumn id="8" name="Tyre In Size" dataDxfId="15"/>
+    <tableColumn id="9" name="Tyre In Brand" dataDxfId="14"/>
+    <tableColumn id="10" name="Tyre In Pattern" dataDxfId="13"/>
+    <tableColumn id="23" name="Tyre In Retread Brand" dataDxfId="12"/>
+    <tableColumn id="22" name="Tyre In _x000a_Retread Pattern" dataDxfId="11"/>
+    <tableColumn id="12" name="Tyre In Serial No" dataDxfId="10"/>
+    <tableColumn id="13" name="Tyre In _x000a_Job Card No" dataDxfId="9"/>
+    <tableColumn id="25" name="Tyre Out Reason" dataDxfId="8"/>
+    <tableColumn id="14" name="Tyre Out Size" dataDxfId="7"/>
+    <tableColumn id="15" name="Tyre Out Brand" dataDxfId="6"/>
+    <tableColumn id="16" name="Tyre Out Pattern" dataDxfId="5"/>
+    <tableColumn id="27" name="Tyre Out Retread Brand" dataDxfId="4"/>
+    <tableColumn id="26" name="Tyre Out Retread Pattern" dataDxfId="3"/>
+    <tableColumn id="18" name="Tyre Out Serial No" dataDxfId="2"/>
+    <tableColumn id="19" name="Tyre Out Job Card No" dataDxfId="1"/>
+    <tableColumn id="29" name="Tyre Out RTD" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,120 +1038,789 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="13.21875" customWidth="1"/>
-    <col min="19" max="19" width="13.77734375" customWidth="1"/>
-    <col min="21" max="21" width="11.109375" customWidth="1"/>
-    <col min="26" max="26" width="13.21875" customWidth="1"/>
-    <col min="27" max="27" width="14" customWidth="1"/>
-    <col min="28" max="28" width="8.88671875" customWidth="1"/>
-    <col min="29" max="29" width="11" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="12.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:30" s="13" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="P1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="Q1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="R1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="U1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="X1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Y1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Z1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="AC1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="AD1" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="13" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42736</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1320</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="2">
+        <v>100230</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="11">
+        <v>1300</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42736</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1320</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="2">
+        <v>100230</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="11">
+        <v>780</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42736</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1100</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="2">
+        <v>98000</v>
+      </c>
+      <c r="L4" s="2">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="11">
+        <v>350</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42924</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1380</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="2">
+        <v>110230</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="11">
+        <v>1350</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42924</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="11">
+        <v>870</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="2">
+        <v>100233</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="11">
+        <v>850</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42926</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1200</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="2">
+        <v>113450</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>